--- a/78 Curso de Corta Duración Dictados.xlsx
+++ b/78 Curso de Corta Duración Dictados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Curso de Corta Duración Dictados</t>
   </si>
@@ -22,29 +22,25 @@
     <t>Nombre del Grupo</t>
   </si>
   <si>
-    <t>Grupo de Trabajo Académico en Ingeniería Hidráulica y Ambiental</t>
-  </si>
-  <si>
     <t>INVEMAR - Calidad Ambiental Marina</t>
   </si>
   <si>
-    <t>Oceanografia Operacional</t>
-  </si>
-  <si>
-    <t>GRUPO DE INVESTIGACIÓN EN BIODIVERSIDAD Y DESARROLLO AMAZONICO,  ¿BYDA¿</t>
-  </si>
-  <si>
-    <t>5.- Extensión extracurricular : Diplomado en Sistemas de Monitoreo e Información Ambiental. Instrumentación y Medición  Colombia, 2018, Idioma: Español, Medio de divulgación: Internet Sitio web: http://idea.manizales.unal.edu.co/gta/ingenieria_hidraulica/, Participación como Organizador, Duración (semanas): 8, Finalidad: Capacitar a los asistentes en los mecanismos de medición de variables ambientales de hidrometeorología, calidad del aire y otras variables del monitoreo de aguas subterráneas y sismología Lugar: Universidad Nacional de Colombia sede Manizales, Institución financiadora: UNIVERSIDAD NACIONAL DE COLOMBIA SEDE MANIZALES  Autores: BEATRIZ HELENA ARISTIZABAL ZULUAGA, JEANNETTE ZAMBRANO NAJERA, JORGE JULIAN VELEZ UPEGUI, ANDREA PATRICIA CUESTA MOSQUERA, CARLOS MARIO GONZALEZ DUQUE, JADE ALEXANDRA LI RAMIREZ</t>
+    <t>Grupo de Investigación en Modelación y Evaluación de Sistemas Ambientales. GiMESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO DE INVESTIGACION AMBIENTAL </t>
   </si>
   <si>
     <t>5.- Extensión extracurricular : DISEÑO DE MONITOREO DE CALIDAD AMBIENTAL EN ZONAS MARINO-COSTERAS: Interpretación de parámetros indicadores de calidad y contaminación de aguas marinas y costeras  Colombia, 2015, Idioma: Español, Medio de divulgación: CD-ROM/DVD Sitio web: , Participación como Docente, Duración (semanas): 1, Finalidad: Brindar conceptos sobre la interpretación de los parámetros indicadores de calidad y contaminación de aguas marinas y costeras, y aplicaciones en casos prácticos que faciliten la gestión ambiental de las CAR costeras, el MADS y otras entidades relacionadas con el manejo del recurso hídrico marino y Lugar: INVEMAR, Institución financiadora: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR  Autores: LIZBETH JANET VIVAS AGUAS</t>
   </si>
   <si>
-    <t>9.- Perfeccionamiento : Control monitoreo y ejcucin del cumplimiento de agua de lastre  Colombia, 2016, Idioma: Español, Medio de divulgación: Internet Sitio web: https://www.cioh.org.co/aguasdelastre/, Participación como Docente, Duración (semanas): 1, Finalidad: Implementar las linea de accion II de la Estrategia Nacional de Agua de Lastre como compromiso del Proyecto Asociaciones BloBllast Lugar: Cartagena, Institución financiadora: Organización Marítima Internacional  Autores: MARY LUZ CANON PAEZ 
- 18.- Extensión extracurricular : Curso-Taller REDCAM 2015: DISEÑO DE MONITOREO DE CALIDAD AMBIENTAL EN ZONAS MARINO-COSTERAS Interpretación de parámetros indicadores de calidad y contaminación de aguas marinas y costeras.  Colombia, 2015, Idioma: Español, Medio de divulgación: Otro Sitio web: , Participación como Otro, Duración (semanas): 1, Finalidad: Criterios de evaluación de la calidad de las aguas marinas y costeras Lugar: Santa marta, Institución financiadora: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR  Autores: ROBINSON CASANOVA ROSERO</t>
-  </si>
-  <si>
-    <t>6.- Otro : Monitoreo local de aguas basado en el uso de macroinvertebrados acuáticos  Colombia, 2017, Idioma: Español, Medio de divulgación: Otro Sitio web: , Participación como Docente, Duración (semanas): 2, Finalidad: Lugar: , Institución financiadora: Autores: JULIETTE PAULINE CHAUX ROJAS</t>
+    <t>2.- Extensión extracurricular : MONITOREO AMBIENTAL PARTICIPATIVOO  Colombia, 2021, Idioma: Español, Medio de divulgación: Papel Sitio web: , Participación como Docente, Duración (semanas): 0, Finalidad: Capacitar a las comunidades del área de influencia de CERRO MATOSO en Monitoreos de los componentes agua, suelo, aguas subterráneas , SIG, flora, fauna y aire Lugar: Municipios de Montelíbano, Puerto Libertador y San José de Uré, Institución financiadora: CERROMATOSO S.A.  Autores: VIVIANA CECILIA SOTO BARRERA, GABRIEL ANTONIO CAMPO DAZA, ZORAYA YASQUINE MARTINEZ LARA, DORIS MEJIA AVILA, ANGELICA BUSTAMANTE RUIZ, MONICA CECILIA CANTERO BENITEZ 
+ 3.- Extensión extracurricular : DIPLOMADO EN MONITOREOAMBIENTAL PARTICIPATIVO  Colombia, 2021, Idioma: Español, Medio de divulgación: Papel Sitio web: , Participación como Docente, Duración (semanas): 12, Finalidad: Capacitar a las comunidades del área de influencia de CERRO MATOSO en Monitoreos de los componentes agua, suelo, aguas subterráneas , SIG, flora, fauna y aire Lugar: MONTELÍBANO, Institución financiadora: CERROMATOSO S.A.  Autores: MONICA CECILIA CANTERO BENITEZ 
+ 4.- Extensión extracurricular : Capacitar a las comunidades del área de influencia de CERRO MATOSO en Monitoreos de los componentes agua, suelo, aguas subterráneas , SIG, flora, fauna y aire  Colombia, 2020, Idioma: Español, Medio de divulgación: Varios Sitio web: , Participación como Docente, Duración (semanas): 0, Finalidad: Lugar: , Institución financiadora: Autores: ANGELICA BUSTAMANTE RUIZ</t>
+  </si>
+  <si>
+    <t>1.- Extensión extracurricular : Curso corto: Fortalecimiento de prestadores del servicio de acueducto del sector rural  Colombia, 2018, Idioma: Español, Medio de divulgación: Papel Sitio web: , Participación como Docente, Duración (semanas): 3, Finalidad: Capacitar a los integrantes de las juntas administradoras de acueducto en temáticas relacionadas con: Gestión ambiental, Mantenimiento y operación de los componentes del acueducto, monitoreo de la calidad del agua, gestión administrativa y financiera Lugar: Ipiales - Nariño, Institución financiadora: Fondo Rotatorio del Ministerio de Relaciones Exteriores  Autores: PAOLA ANDREA ORTEGA GUERRERO 
+ 2.- Extensión extracurricular : Curso corto: Fortalecimiento de prestadores del servicio de acueducto del sector rural  Colombia, 2018, Idioma: Español, Medio de divulgación: Papel Sitio web: , Participación como Organizador, Duración (semanas): 3, Finalidad: Capacitar a los integrantes de las juntas administradoras de acueducto en temáticas relacionadas con: Gestión ambiental, Mantenimiento y operación de los componentes del acueducto, monitoreo de la calidad del agua, gestión administrativa y financiera Lugar: Ipiales - Nariño, Institución financiadora: Fondo Rotatorio del Ministerio de Relaciones Exteriores  Autores: PAOLA ANDREA ORTEGA GUERRERO</t>
   </si>
 </sst>
 </file>
@@ -402,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,15 +433,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
